--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK207"/>
+  <dimension ref="A1:BK211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.13</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT4" t="n">
         <v>2.13</v>
@@ -1512,7 +1512,7 @@
         <v>2.2</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.4</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT10" t="n">
         <v>0.67</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT13" t="n">
         <v>2.2</v>
@@ -3339,7 +3339,7 @@
         <v>2.2</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU14" t="n">
         <v>2.32</v>
@@ -3742,10 +3742,10 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU16" t="n">
         <v>0.61</v>
@@ -3948,7 +3948,7 @@
         <v>2.27</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU17" t="n">
         <v>1.85</v>
@@ -4354,7 +4354,7 @@
         <v>1.6</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU19" t="n">
         <v>1.3</v>
@@ -5163,10 +5163,10 @@
         <v>0.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU23" t="n">
         <v>0.8</v>
@@ -5366,7 +5366,7 @@
         <v>0.33</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT24" t="n">
         <v>0.47</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU25" t="n">
         <v>1.79</v>
@@ -7196,7 +7196,7 @@
         <v>1.07</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT34" t="n">
         <v>1.8</v>
@@ -7805,7 +7805,7 @@
         <v>1.13</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU36" t="n">
         <v>1.45</v>
@@ -8005,7 +8005,7 @@
         <v>0.25</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT37" t="n">
         <v>0.47</v>
@@ -8414,7 +8414,7 @@
         <v>2.27</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU39" t="n">
         <v>1.84</v>
@@ -9020,10 +9020,10 @@
         <v>1.33</v>
       </c>
       <c r="AS42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT42" t="n">
         <v>1.07</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>1.14</v>
       </c>
       <c r="AU42" t="n">
         <v>1.73</v>
@@ -9226,7 +9226,7 @@
         <v>2.47</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU43" t="n">
         <v>1.82</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT46" t="n">
         <v>1.93</v>
@@ -10241,7 +10241,7 @@
         <v>2.4</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU48" t="n">
         <v>1.12</v>
@@ -11053,7 +11053,7 @@
         <v>1.93</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU52" t="n">
         <v>1.38</v>
@@ -11256,7 +11256,7 @@
         <v>2.47</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU53" t="n">
         <v>2.19</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT54" t="n">
         <v>1.36</v>
@@ -11659,7 +11659,7 @@
         <v>3</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT55" t="n">
         <v>2.2</v>
@@ -11865,7 +11865,7 @@
         <v>1.53</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU56" t="n">
         <v>1.22</v>
@@ -12880,7 +12880,7 @@
         <v>2.2</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU61" t="n">
         <v>1.84</v>
@@ -13486,7 +13486,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT64" t="n">
         <v>0.67</v>
@@ -13692,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU65" t="n">
         <v>1.71</v>
@@ -14301,7 +14301,7 @@
         <v>1.07</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU68" t="n">
         <v>1.03</v>
@@ -14907,10 +14907,10 @@
         <v>0.8</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU71" t="n">
         <v>1.71</v>
@@ -15110,7 +15110,7 @@
         <v>2.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT72" t="n">
         <v>1.53</v>
@@ -15313,10 +15313,10 @@
         <v>0</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU73" t="n">
         <v>1.13</v>
@@ -16940,7 +16940,7 @@
         <v>1.6</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU81" t="n">
         <v>1.28</v>
@@ -17952,7 +17952,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT86" t="n">
         <v>0.8</v>
@@ -18158,7 +18158,7 @@
         <v>2.4</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU87" t="n">
         <v>1.32</v>
@@ -18358,10 +18358,10 @@
         <v>1.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU88" t="n">
         <v>1.25</v>
@@ -18970,7 +18970,7 @@
         <v>1.53</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU91" t="n">
         <v>1.13</v>
@@ -19170,7 +19170,7 @@
         <v>0.29</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT92" t="n">
         <v>0.47</v>
@@ -19982,7 +19982,7 @@
         <v>1.83</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT96" t="n">
         <v>1.93</v>
@@ -20388,10 +20388,10 @@
         <v>0.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU98" t="n">
         <v>1.21</v>
@@ -20797,7 +20797,7 @@
         <v>1.07</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU100" t="n">
         <v>1.09</v>
@@ -21000,7 +21000,7 @@
         <v>2.27</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU101" t="n">
         <v>1.65</v>
@@ -21812,7 +21812,7 @@
         <v>1.93</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU105" t="n">
         <v>1.67</v>
@@ -22012,7 +22012,7 @@
         <v>0.14</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT106" t="n">
         <v>0.6</v>
@@ -22215,7 +22215,7 @@
         <v>1.71</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT107" t="n">
         <v>1.53</v>
@@ -22621,7 +22621,7 @@
         <v>2.13</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT109" t="n">
         <v>2.13</v>
@@ -23233,7 +23233,7 @@
         <v>0.87</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU112" t="n">
         <v>0.91</v>
@@ -23839,7 +23839,7 @@
         <v>1.63</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT115" t="n">
         <v>1.8</v>
@@ -24248,7 +24248,7 @@
         <v>1.6</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU117" t="n">
         <v>1.26</v>
@@ -24451,7 +24451,7 @@
         <v>1.93</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU118" t="n">
         <v>1.78</v>
@@ -25057,10 +25057,10 @@
         <v>0.75</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU121" t="n">
         <v>1.12</v>
@@ -25466,7 +25466,7 @@
         <v>2.47</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU123" t="n">
         <v>2.27</v>
@@ -26072,7 +26072,7 @@
         <v>2.38</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT126" t="n">
         <v>2.2</v>
@@ -26681,10 +26681,10 @@
         <v>0.44</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU129" t="n">
         <v>1.49</v>
@@ -27902,7 +27902,7 @@
         <v>1.13</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU135" t="n">
         <v>1.3</v>
@@ -28102,10 +28102,10 @@
         <v>0.78</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU136" t="n">
         <v>1.34</v>
@@ -28914,10 +28914,10 @@
         <v>0.33</v>
       </c>
       <c r="AS140" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU140" t="n">
         <v>1.13</v>
@@ -29320,7 +29320,7 @@
         <v>0.6</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT142" t="n">
         <v>0.6</v>
@@ -29932,7 +29932,7 @@
         <v>0.87</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU145" t="n">
         <v>1.03</v>
@@ -30538,10 +30538,10 @@
         <v>0.6</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU148" t="n">
         <v>1.34</v>
@@ -30744,7 +30744,7 @@
         <v>1.13</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU149" t="n">
         <v>1.3</v>
@@ -31147,7 +31147,7 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT151" t="n">
         <v>1.36</v>
@@ -31759,7 +31759,7 @@
         <v>2.27</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU154" t="n">
         <v>1.8</v>
@@ -32365,7 +32365,7 @@
         <v>1.82</v>
       </c>
       <c r="AS157" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT157" t="n">
         <v>1.93</v>
@@ -32571,7 +32571,7 @@
         <v>0.87</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU158" t="n">
         <v>1.01</v>
@@ -33177,7 +33177,7 @@
         <v>0.73</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT161" t="n">
         <v>0.8</v>
@@ -33586,7 +33586,7 @@
         <v>2.47</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU163" t="n">
         <v>2.31</v>
@@ -33786,7 +33786,7 @@
         <v>1.82</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT164" t="n">
         <v>1.8</v>
@@ -34195,7 +34195,7 @@
         <v>1.07</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU166" t="n">
         <v>1.2</v>
@@ -34601,7 +34601,7 @@
         <v>1.93</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU168" t="n">
         <v>1.65</v>
@@ -34804,7 +34804,7 @@
         <v>1.53</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU169" t="n">
         <v>1.22</v>
@@ -35207,7 +35207,7 @@
         <v>1.58</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT171" t="n">
         <v>1.53</v>
@@ -35410,7 +35410,7 @@
         <v>0.92</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT172" t="n">
         <v>0.8</v>
@@ -35613,7 +35613,7 @@
         <v>1.82</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT173" t="n">
         <v>2.13</v>
@@ -35819,7 +35819,7 @@
         <v>2.2</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU174" t="n">
         <v>1.89</v>
@@ -36022,7 +36022,7 @@
         <v>2.4</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU175" t="n">
         <v>1.67</v>
@@ -36631,7 +36631,7 @@
         <v>1</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU178" t="n">
         <v>1.32</v>
@@ -37849,7 +37849,7 @@
         <v>1.53</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU184" t="n">
         <v>1.23</v>
@@ -38049,7 +38049,7 @@
         <v>0.23</v>
       </c>
       <c r="AS185" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT185" t="n">
         <v>0.47</v>
@@ -38255,7 +38255,7 @@
         <v>1.6</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU186" t="n">
         <v>1.23</v>
@@ -38455,7 +38455,7 @@
         <v>0.62</v>
       </c>
       <c r="AS187" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT187" t="n">
         <v>0.6</v>
@@ -39270,7 +39270,7 @@
         <v>1.07</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU191" t="n">
         <v>1.22</v>
@@ -39673,7 +39673,7 @@
         <v>1.23</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT193" t="n">
         <v>1.36</v>
@@ -39879,7 +39879,7 @@
         <v>1</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU194" t="n">
         <v>1.31</v>
@@ -41500,7 +41500,7 @@
         <v>0.71</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT202" t="n">
         <v>0.67</v>
@@ -41706,7 +41706,7 @@
         <v>0.87</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU203" t="n">
         <v>1.02</v>
@@ -42570,6 +42570,818 @@
       </c>
       <c r="BK207" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5619070</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45038.55208333334</v>
+      </c>
+      <c r="F208" t="n">
+        <v>4</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="n">
+        <v>2</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="n">
+        <v>2</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>2</v>
+      </c>
+      <c r="R208" t="n">
+        <v>2</v>
+      </c>
+      <c r="S208" t="n">
+        <v>4</v>
+      </c>
+      <c r="T208" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U208" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V208" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5619071</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45038.55208333334</v>
+      </c>
+      <c r="F209" t="n">
+        <v>4</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
+      <c r="K209" t="n">
+        <v>2</v>
+      </c>
+      <c r="L209" t="n">
+        <v>3</v>
+      </c>
+      <c r="M209" t="n">
+        <v>2</v>
+      </c>
+      <c r="N209" t="n">
+        <v>5</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['14', '62', '78']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['24', '56']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>7</v>
+      </c>
+      <c r="R209" t="n">
+        <v>2</v>
+      </c>
+      <c r="S209" t="n">
+        <v>9</v>
+      </c>
+      <c r="T209" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2</v>
+      </c>
+      <c r="V209" t="n">
+        <v>5</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X209" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5619072</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45038.55208333334</v>
+      </c>
+      <c r="F210" t="n">
+        <v>4</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>7</v>
+      </c>
+      <c r="R210" t="n">
+        <v>2</v>
+      </c>
+      <c r="S210" t="n">
+        <v>9</v>
+      </c>
+      <c r="T210" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2</v>
+      </c>
+      <c r="V210" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X210" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5619069</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45038.55208333334</v>
+      </c>
+      <c r="F211" t="n">
+        <v>4</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="n">
+        <v>2</v>
+      </c>
+      <c r="M211" t="n">
+        <v>2</v>
+      </c>
+      <c r="N211" t="n">
+        <v>4</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['50', '56']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['26', '85']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>7</v>
+      </c>
+      <c r="R211" t="n">
+        <v>2</v>
+      </c>
+      <c r="S211" t="n">
+        <v>9</v>
+      </c>
+      <c r="T211" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U211" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V211" t="n">
+        <v>4</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X211" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK211"/>
+  <dimension ref="A1:BK214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT2" t="n">
         <v>0.4</v>
@@ -1309,7 +1309,7 @@
         <v>1.07</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT5" t="n">
         <v>1.07</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AT8" t="n">
         <v>0.6</v>
@@ -2933,7 +2933,7 @@
         <v>0.87</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT14" t="n">
         <v>0.67</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AT17" t="n">
         <v>0.6899999999999999</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT20" t="n">
         <v>1.36</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AT26" t="n">
         <v>1.53</v>
@@ -5978,7 +5978,7 @@
         <v>1.53</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU27" t="n">
         <v>0.66</v>
@@ -6181,7 +6181,7 @@
         <v>2.4</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU28" t="n">
         <v>1.22</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT29" t="n">
         <v>0.67</v>
@@ -6587,7 +6587,7 @@
         <v>0.87</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU30" t="n">
         <v>1.01</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT36" t="n">
         <v>0.6899999999999999</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AT39" t="n">
         <v>0.67</v>
@@ -8614,10 +8614,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU40" t="n">
         <v>1.35</v>
@@ -8817,10 +8817,10 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU41" t="n">
         <v>1.96</v>
@@ -10444,7 +10444,7 @@
         <v>1.93</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU49" t="n">
         <v>1.5</v>
@@ -10847,7 +10847,7 @@
         <v>0.2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT51" t="n">
         <v>0.47</v>
@@ -11662,7 +11662,7 @@
         <v>1.07</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU55" t="n">
         <v>1.21</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AT57" t="n">
         <v>1.8</v>
@@ -12877,7 +12877,7 @@
         <v>0.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT61" t="n">
         <v>0.4</v>
@@ -13083,7 +13083,7 @@
         <v>2.4</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU62" t="n">
         <v>1.3</v>
@@ -13286,7 +13286,7 @@
         <v>1.07</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU63" t="n">
         <v>1.08</v>
@@ -13892,10 +13892,10 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU66" t="n">
         <v>1.41</v>
@@ -14095,7 +14095,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AT67" t="n">
         <v>0.67</v>
@@ -15519,7 +15519,7 @@
         <v>1.6</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU74" t="n">
         <v>1.36</v>
@@ -15719,7 +15719,7 @@
         <v>0.2</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT75" t="n">
         <v>0.6</v>
@@ -16331,7 +16331,7 @@
         <v>1.53</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU78" t="n">
         <v>1.13</v>
@@ -16737,7 +16737,7 @@
         <v>0.87</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU80" t="n">
         <v>0.92</v>
@@ -17546,7 +17546,7 @@
         <v>0.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT84" t="n">
         <v>0.6</v>
@@ -17955,7 +17955,7 @@
         <v>1.2</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU86" t="n">
         <v>1.64</v>
@@ -18561,10 +18561,10 @@
         <v>2.17</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU89" t="n">
         <v>1.75</v>
@@ -18764,7 +18764,7 @@
         <v>2.2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT90" t="n">
         <v>1.53</v>
@@ -19376,7 +19376,7 @@
         <v>1.07</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU93" t="n">
         <v>1.08</v>
@@ -20188,7 +20188,7 @@
         <v>1</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU97" t="n">
         <v>1.58</v>
@@ -20997,7 +20997,7 @@
         <v>0.57</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AT101" t="n">
         <v>0.4</v>
@@ -21200,10 +21200,10 @@
         <v>2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU102" t="n">
         <v>1.38</v>
@@ -22421,7 +22421,7 @@
         <v>1.07</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU108" t="n">
         <v>1.16</v>
@@ -22624,7 +22624,7 @@
         <v>1.2</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU109" t="n">
         <v>1.54</v>
@@ -23433,10 +23433,10 @@
         <v>1.14</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU113" t="n">
         <v>1.91</v>
@@ -24042,7 +24042,7 @@
         <v>1.88</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT116" t="n">
         <v>1.93</v>
@@ -24654,7 +24654,7 @@
         <v>2.47</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU119" t="n">
         <v>2.36</v>
@@ -25260,7 +25260,7 @@
         <v>1.13</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT122" t="n">
         <v>1.36</v>
@@ -25869,10 +25869,10 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU125" t="n">
         <v>1.68</v>
@@ -26075,7 +26075,7 @@
         <v>1.2</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU126" t="n">
         <v>1.41</v>
@@ -27090,7 +27090,7 @@
         <v>1</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU131" t="n">
         <v>1.37</v>
@@ -27899,7 +27899,7 @@
         <v>1.33</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT135" t="n">
         <v>1.07</v>
@@ -28305,7 +28305,7 @@
         <v>1.11</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AT137" t="n">
         <v>1.36</v>
@@ -28511,7 +28511,7 @@
         <v>2.47</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU138" t="n">
         <v>2.35</v>
@@ -28711,7 +28711,7 @@
         <v>0.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT139" t="n">
         <v>0.47</v>
@@ -29120,7 +29120,7 @@
         <v>1.53</v>
       </c>
       <c r="AT141" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU141" t="n">
         <v>1.3</v>
@@ -29526,7 +29526,7 @@
         <v>1</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU143" t="n">
         <v>1.34</v>
@@ -30132,7 +30132,7 @@
         <v>1.9</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT146" t="n">
         <v>1.93</v>
@@ -30741,7 +30741,7 @@
         <v>0.8</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT149" t="n">
         <v>0.67</v>
@@ -30947,7 +30947,7 @@
         <v>1.93</v>
       </c>
       <c r="AT150" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU150" t="n">
         <v>1.72</v>
@@ -31756,7 +31756,7 @@
         <v>1.5</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AT154" t="n">
         <v>1.07</v>
@@ -32771,10 +32771,10 @@
         <v>2</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU159" t="n">
         <v>2</v>
@@ -33180,7 +33180,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU161" t="n">
         <v>1.53</v>
@@ -33380,7 +33380,7 @@
         <v>0.45</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT162" t="n">
         <v>0.67</v>
@@ -33989,10 +33989,10 @@
         <v>2.27</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AT165" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU165" t="n">
         <v>1.79</v>
@@ -35004,7 +35004,7 @@
         <v>0.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AT170" t="n">
         <v>0.47</v>
@@ -35413,7 +35413,7 @@
         <v>1.07</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU172" t="n">
         <v>1.19</v>
@@ -35616,7 +35616,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT173" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU173" t="n">
         <v>1.51</v>
@@ -35816,7 +35816,7 @@
         <v>0.58</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT174" t="n">
         <v>0.6899999999999999</v>
@@ -36225,7 +36225,7 @@
         <v>1.6</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU176" t="n">
         <v>1.37</v>
@@ -36831,7 +36831,7 @@
         <v>1.75</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT179" t="n">
         <v>1.8</v>
@@ -37443,7 +37443,7 @@
         <v>1.6</v>
       </c>
       <c r="AT182" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU182" t="n">
         <v>1.29</v>
@@ -38658,7 +38658,7 @@
         <v>2</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT188" t="n">
         <v>1.93</v>
@@ -39067,7 +39067,7 @@
         <v>2.47</v>
       </c>
       <c r="AT190" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU190" t="n">
         <v>2.37</v>
@@ -40282,10 +40282,10 @@
         <v>2</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT196" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU196" t="n">
         <v>1.88</v>
@@ -40485,10 +40485,10 @@
         <v>0.85</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU197" t="n">
         <v>1.83</v>
@@ -40688,10 +40688,10 @@
         <v>2.07</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT198" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU198" t="n">
         <v>1.14</v>
@@ -40894,7 +40894,7 @@
         <v>1.93</v>
       </c>
       <c r="AT199" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU199" t="n">
         <v>1.69</v>
@@ -41094,7 +41094,7 @@
         <v>1.93</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AT200" t="n">
         <v>1.8</v>
@@ -42112,7 +42112,7 @@
         <v>2.47</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU205" t="n">
         <v>2.29</v>
@@ -42312,7 +42312,7 @@
         <v>1.64</v>
       </c>
       <c r="AS206" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT206" t="n">
         <v>1.53</v>
@@ -43382,6 +43382,615 @@
       </c>
       <c r="BK211" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5619066</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45039.47916666666</v>
+      </c>
+      <c r="F212" t="n">
+        <v>5</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>3</v>
+      </c>
+      <c r="N212" t="n">
+        <v>3</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['27', '77', '80']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>3</v>
+      </c>
+      <c r="R212" t="n">
+        <v>5</v>
+      </c>
+      <c r="S212" t="n">
+        <v>8</v>
+      </c>
+      <c r="T212" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X212" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5619068</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45039.58333333334</v>
+      </c>
+      <c r="F213" t="n">
+        <v>5</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="n">
+        <v>2</v>
+      </c>
+      <c r="N213" t="n">
+        <v>3</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['38', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>8</v>
+      </c>
+      <c r="R213" t="n">
+        <v>3</v>
+      </c>
+      <c r="S213" t="n">
+        <v>11</v>
+      </c>
+      <c r="T213" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U213" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V213" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X213" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5619067</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45039.625</v>
+      </c>
+      <c r="F214" t="n">
+        <v>5</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="n">
+        <v>3</v>
+      </c>
+      <c r="N214" t="n">
+        <v>4</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['7', '82', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>2</v>
+      </c>
+      <c r="R214" t="n">
+        <v>5</v>
+      </c>
+      <c r="S214" t="n">
+        <v>7</v>
+      </c>
+      <c r="T214" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U214" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V214" t="n">
+        <v>4</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X214" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK214"/>
+  <dimension ref="A1:BK217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
         <v>0.4</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>0.47</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT11" t="n">
         <v>1.53</v>
@@ -3136,7 +3136,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.53</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
         <v>1.36</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT21" t="n">
         <v>0.6</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU22" t="n">
         <v>1.55</v>
@@ -7399,7 +7399,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU34" t="n">
         <v>0.96</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT36" t="n">
         <v>0.6899999999999999</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT40" t="n">
         <v>0.9399999999999999</v>
@@ -8820,7 +8820,7 @@
         <v>2.06</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU41" t="n">
         <v>1.96</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT43" t="n">
         <v>0.6899999999999999</v>
@@ -9835,7 +9835,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU46" t="n">
         <v>1.05</v>
@@ -10038,7 +10038,7 @@
         <v>1.07</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU47" t="n">
         <v>1.2</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT49" t="n">
         <v>2.19</v>
@@ -10847,7 +10847,7 @@
         <v>0.2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT51" t="n">
         <v>0.47</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT52" t="n">
         <v>0.6899999999999999</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT53" t="n">
         <v>0.67</v>
@@ -11662,7 +11662,7 @@
         <v>1.07</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU55" t="n">
         <v>1.21</v>
@@ -12068,7 +12068,7 @@
         <v>2.13</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU57" t="n">
         <v>1.76</v>
@@ -12474,7 +12474,7 @@
         <v>0.87</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU59" t="n">
         <v>0.83</v>
@@ -13892,10 +13892,10 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU66" t="n">
         <v>1.41</v>
@@ -14501,10 +14501,10 @@
         <v>1.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU69" t="n">
         <v>2.5</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT70" t="n">
         <v>1.36</v>
@@ -16128,7 +16128,7 @@
         <v>2.4</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU77" t="n">
         <v>1.34</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT79" t="n">
         <v>0.67</v>
@@ -16737,7 +16737,7 @@
         <v>0.87</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU80" t="n">
         <v>0.92</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT82" t="n">
         <v>1.36</v>
@@ -17346,7 +17346,7 @@
         <v>1.07</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU83" t="n">
         <v>1.12</v>
@@ -17546,7 +17546,7 @@
         <v>0.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT84" t="n">
         <v>0.6</v>
@@ -17752,7 +17752,7 @@
         <v>1</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU85" t="n">
         <v>1.74</v>
@@ -19576,7 +19576,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT94" t="n">
         <v>0.67</v>
@@ -19985,7 +19985,7 @@
         <v>1.2</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU96" t="n">
         <v>1.6</v>
@@ -20188,7 +20188,7 @@
         <v>1</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU97" t="n">
         <v>1.58</v>
@@ -20594,7 +20594,7 @@
         <v>0.87</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU99" t="n">
         <v>0.89</v>
@@ -21200,7 +21200,7 @@
         <v>2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT102" t="n">
         <v>2.19</v>
@@ -21406,7 +21406,7 @@
         <v>1.6</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU103" t="n">
         <v>1.3</v>
@@ -21809,7 +21809,7 @@
         <v>1.71</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT105" t="n">
         <v>1.07</v>
@@ -22421,7 +22421,7 @@
         <v>1.07</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU108" t="n">
         <v>1.16</v>
@@ -22827,7 +22827,7 @@
         <v>1</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU110" t="n">
         <v>1.5</v>
@@ -23842,7 +23842,7 @@
         <v>1.07</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU115" t="n">
         <v>1.22</v>
@@ -24042,10 +24042,10 @@
         <v>1.88</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU116" t="n">
         <v>1.31</v>
@@ -24448,7 +24448,7 @@
         <v>0.5</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT118" t="n">
         <v>0.4</v>
@@ -24651,10 +24651,10 @@
         <v>2.71</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU119" t="n">
         <v>2.36</v>
@@ -25463,7 +25463,7 @@
         <v>1.5</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT123" t="n">
         <v>1.07</v>
@@ -26075,7 +26075,7 @@
         <v>1.2</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU126" t="n">
         <v>1.41</v>
@@ -26884,7 +26884,7 @@
         <v>1.78</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT130" t="n">
         <v>1.53</v>
@@ -27496,7 +27496,7 @@
         <v>2.4</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU133" t="n">
         <v>1.57</v>
@@ -27699,7 +27699,7 @@
         <v>1.6</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU134" t="n">
         <v>1.33</v>
@@ -27899,7 +27899,7 @@
         <v>1.33</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT135" t="n">
         <v>1.07</v>
@@ -28508,7 +28508,7 @@
         <v>0.89</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT138" t="n">
         <v>0.9399999999999999</v>
@@ -29120,7 +29120,7 @@
         <v>1.53</v>
       </c>
       <c r="AT141" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU141" t="n">
         <v>1.3</v>
@@ -30135,7 +30135,7 @@
         <v>2.06</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU146" t="n">
         <v>1.96</v>
@@ -30741,7 +30741,7 @@
         <v>0.8</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT149" t="n">
         <v>0.67</v>
@@ -30944,10 +30944,10 @@
         <v>2.2</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT150" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU150" t="n">
         <v>1.72</v>
@@ -31353,7 +31353,7 @@
         <v>1.53</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU152" t="n">
         <v>1.25</v>
@@ -31553,7 +31553,7 @@
         <v>0.3</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT153" t="n">
         <v>0.47</v>
@@ -32368,7 +32368,7 @@
         <v>1.07</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU157" t="n">
         <v>1.22</v>
@@ -33380,7 +33380,7 @@
         <v>0.45</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT162" t="n">
         <v>0.67</v>
@@ -33583,7 +33583,7 @@
         <v>0.45</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT163" t="n">
         <v>0.4</v>
@@ -33789,7 +33789,7 @@
         <v>1.2</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU164" t="n">
         <v>1.36</v>
@@ -33992,7 +33992,7 @@
         <v>2.13</v>
       </c>
       <c r="AT165" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU165" t="n">
         <v>1.79</v>
@@ -34598,7 +34598,7 @@
         <v>0.73</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT168" t="n">
         <v>0.67</v>
@@ -36831,10 +36831,10 @@
         <v>1.75</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU179" t="n">
         <v>1.29</v>
@@ -37237,7 +37237,7 @@
         <v>0.67</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT181" t="n">
         <v>0.6</v>
@@ -37443,7 +37443,7 @@
         <v>1.6</v>
       </c>
       <c r="AT182" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU182" t="n">
         <v>1.29</v>
@@ -37643,10 +37643,10 @@
         <v>1.92</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU183" t="n">
         <v>2.4</v>
@@ -38658,10 +38658,10 @@
         <v>2</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU188" t="n">
         <v>1.22</v>
@@ -38861,10 +38861,10 @@
         <v>1.85</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU189" t="n">
         <v>1.75</v>
@@ -39064,10 +39064,10 @@
         <v>2.23</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT190" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU190" t="n">
         <v>2.37</v>
@@ -40688,7 +40688,7 @@
         <v>2.07</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT198" t="n">
         <v>2.19</v>
@@ -40891,10 +40891,10 @@
         <v>2.14</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT199" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU199" t="n">
         <v>1.69</v>
@@ -41097,7 +41097,7 @@
         <v>2.13</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU200" t="n">
         <v>1.84</v>
@@ -42109,7 +42109,7 @@
         <v>0.86</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT205" t="n">
         <v>0.9399999999999999</v>
@@ -42518,7 +42518,7 @@
         <v>2.4</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU207" t="n">
         <v>1.74</v>
@@ -43530,7 +43530,7 @@
         <v>0.8</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT212" t="n">
         <v>0.9399999999999999</v>
@@ -43736,7 +43736,7 @@
         <v>2.06</v>
       </c>
       <c r="AT213" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU213" t="n">
         <v>1.84</v>
@@ -43991,6 +43991,615 @@
       </c>
       <c r="BK214" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5619075</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45042.5</v>
+      </c>
+      <c r="F215" t="n">
+        <v>6</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>2</v>
+      </c>
+      <c r="N215" t="n">
+        <v>2</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['46', '65']</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>2</v>
+      </c>
+      <c r="R215" t="n">
+        <v>10</v>
+      </c>
+      <c r="S215" t="n">
+        <v>12</v>
+      </c>
+      <c r="T215" t="n">
+        <v>8</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V215" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X215" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5619074</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45042.54166666666</v>
+      </c>
+      <c r="F216" t="n">
+        <v>6</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="n">
+        <v>2</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="n">
+        <v>3</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['36', '65']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>2</v>
+      </c>
+      <c r="R216" t="n">
+        <v>6</v>
+      </c>
+      <c r="S216" t="n">
+        <v>8</v>
+      </c>
+      <c r="T216" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V216" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X216" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5619073</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45042.625</v>
+      </c>
+      <c r="F217" t="n">
+        <v>6</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>2</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>2</v>
+      </c>
+      <c r="L217" t="n">
+        <v>4</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>4</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['21', '24', '77', '86']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>4</v>
+      </c>
+      <c r="R217" t="n">
+        <v>3</v>
+      </c>
+      <c r="S217" t="n">
+        <v>7</v>
+      </c>
+      <c r="T217" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U217" t="n">
+        <v>2</v>
+      </c>
+      <c r="V217" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X217" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BK221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.13</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.2</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT12" t="n">
         <v>0.9399999999999999</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT15" t="n">
         <v>1.81</v>
@@ -4151,7 +4151,7 @@
         <v>2.4</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU18" t="n">
         <v>1.27</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
         <v>1.07</v>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU20" t="n">
         <v>1.54</v>
@@ -4760,7 +4760,7 @@
         <v>2.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU21" t="n">
         <v>2</v>
@@ -5369,7 +5369,7 @@
         <v>1.2</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU24" t="n">
         <v>1.46</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT25" t="n">
         <v>0.67</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT27" t="n">
         <v>0.9399999999999999</v>
@@ -6384,7 +6384,7 @@
         <v>2.06</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU29" t="n">
         <v>2.15</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT30" t="n">
         <v>2.19</v>
@@ -6787,10 +6787,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU31" t="n">
         <v>1.39</v>
@@ -6993,7 +6993,7 @@
         <v>2.4</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU32" t="n">
         <v>1.18</v>
@@ -8008,7 +8008,7 @@
         <v>1.07</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU37" t="n">
         <v>0.61</v>
@@ -8208,10 +8208,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU38" t="n">
         <v>1.24</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT44" t="n">
         <v>1.53</v>
@@ -9629,10 +9629,10 @@
         <v>0.67</v>
       </c>
       <c r="AS45" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU45" t="n">
         <v>1.62</v>
@@ -10644,10 +10644,10 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU50" t="n">
         <v>1.34</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU51" t="n">
         <v>1.3</v>
@@ -11459,7 +11459,7 @@
         <v>1.2</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU54" t="n">
         <v>1.81</v>
@@ -11862,7 +11862,7 @@
         <v>1.75</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT56" t="n">
         <v>1.07</v>
@@ -12268,7 +12268,7 @@
         <v>2.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT58" t="n">
         <v>1.53</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT59" t="n">
         <v>1.81</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU60" t="n">
         <v>1.83</v>
@@ -13489,7 +13489,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU64" t="n">
         <v>1.07</v>
@@ -13689,7 +13689,7 @@
         <v>1.6</v>
       </c>
       <c r="AS65" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT65" t="n">
         <v>1.07</v>
@@ -14098,7 +14098,7 @@
         <v>2.13</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU67" t="n">
         <v>1.76</v>
@@ -14707,7 +14707,7 @@
         <v>2</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU70" t="n">
         <v>1.46</v>
@@ -15516,7 +15516,7 @@
         <v>0.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT74" t="n">
         <v>0.9399999999999999</v>
@@ -15722,7 +15722,7 @@
         <v>2.06</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU75" t="n">
         <v>1.94</v>
@@ -15922,10 +15922,10 @@
         <v>0.17</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU76" t="n">
         <v>0.8100000000000001</v>
@@ -16328,7 +16328,7 @@
         <v>2.4</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT78" t="n">
         <v>2.19</v>
@@ -16534,7 +16534,7 @@
         <v>2</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU79" t="n">
         <v>1.58</v>
@@ -16734,7 +16734,7 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT80" t="n">
         <v>2.29</v>
@@ -16937,7 +16937,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT81" t="n">
         <v>0.4</v>
@@ -17143,7 +17143,7 @@
         <v>2.5</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU82" t="n">
         <v>2.41</v>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU84" t="n">
         <v>1.34</v>
@@ -17749,7 +17749,7 @@
         <v>1.2</v>
       </c>
       <c r="AS85" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT85" t="n">
         <v>1.69</v>
@@ -18967,7 +18967,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT91" t="n">
         <v>0.6899999999999999</v>
@@ -19173,7 +19173,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.23</v>
@@ -19579,7 +19579,7 @@
         <v>2.5</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU94" t="n">
         <v>2.39</v>
@@ -19779,7 +19779,7 @@
         <v>1.83</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT95" t="n">
         <v>1.53</v>
@@ -20185,7 +20185,7 @@
         <v>3</v>
       </c>
       <c r="AS97" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT97" t="n">
         <v>2.29</v>
@@ -20591,7 +20591,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT99" t="n">
         <v>1.69</v>
@@ -21403,7 +21403,7 @@
         <v>1.71</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT103" t="n">
         <v>1.69</v>
@@ -21609,7 +21609,7 @@
         <v>2.4</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU104" t="n">
         <v>1.47</v>
@@ -22015,7 +22015,7 @@
         <v>1.07</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU106" t="n">
         <v>1.25</v>
@@ -22824,7 +22824,7 @@
         <v>1.71</v>
       </c>
       <c r="AS110" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT110" t="n">
         <v>1.81</v>
@@ -23027,10 +23027,10 @@
         <v>0.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU111" t="n">
         <v>1.31</v>
@@ -23230,7 +23230,7 @@
         <v>0.86</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT112" t="n">
         <v>0.67</v>
@@ -23639,7 +23639,7 @@
         <v>1.07</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU114" t="n">
         <v>1.17</v>
@@ -24245,7 +24245,7 @@
         <v>0.38</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT117" t="n">
         <v>0.6899999999999999</v>
@@ -24854,10 +24854,10 @@
         <v>0.86</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU120" t="n">
         <v>1.05</v>
@@ -25263,7 +25263,7 @@
         <v>2.06</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU122" t="n">
         <v>1.85</v>
@@ -25666,10 +25666,10 @@
         <v>0.25</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU124" t="n">
         <v>1.33</v>
@@ -26275,7 +26275,7 @@
         <v>1.63</v>
       </c>
       <c r="AS127" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT127" t="n">
         <v>1.53</v>
@@ -26478,10 +26478,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU128" t="n">
         <v>1</v>
@@ -27087,7 +27087,7 @@
         <v>1.89</v>
       </c>
       <c r="AS131" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT131" t="n">
         <v>2.19</v>
@@ -27293,7 +27293,7 @@
         <v>1.07</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU132" t="n">
         <v>1.18</v>
@@ -27696,7 +27696,7 @@
         <v>2</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT134" t="n">
         <v>1.81</v>
@@ -28308,7 +28308,7 @@
         <v>2.13</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU137" t="n">
         <v>1.69</v>
@@ -28714,7 +28714,7 @@
         <v>2.06</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU139" t="n">
         <v>1.98</v>
@@ -29117,7 +29117,7 @@
         <v>2.44</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT141" t="n">
         <v>2.29</v>
@@ -29323,7 +29323,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU142" t="n">
         <v>1.47</v>
@@ -29523,7 +29523,7 @@
         <v>0.8</v>
       </c>
       <c r="AS143" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT143" t="n">
         <v>0.9399999999999999</v>
@@ -29729,7 +29729,7 @@
         <v>2.4</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU144" t="n">
         <v>1.51</v>
@@ -29929,7 +29929,7 @@
         <v>0.4</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT145" t="n">
         <v>0.4</v>
@@ -31150,7 +31150,7 @@
         <v>1.07</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU151" t="n">
         <v>1.16</v>
@@ -31350,7 +31350,7 @@
         <v>1.9</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT152" t="n">
         <v>1.69</v>
@@ -31556,7 +31556,7 @@
         <v>2.5</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU153" t="n">
         <v>2.31</v>
@@ -32162,10 +32162,10 @@
         <v>0.64</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU156" t="n">
         <v>1.25</v>
@@ -32568,7 +32568,7 @@
         <v>0.64</v>
       </c>
       <c r="AS158" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT158" t="n">
         <v>0.6899999999999999</v>
@@ -32974,10 +32974,10 @@
         <v>0.27</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU160" t="n">
         <v>1.32</v>
@@ -33383,7 +33383,7 @@
         <v>1</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU162" t="n">
         <v>1.29</v>
@@ -34395,10 +34395,10 @@
         <v>1.18</v>
       </c>
       <c r="AS167" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU167" t="n">
         <v>1.3</v>
@@ -34801,7 +34801,7 @@
         <v>0.67</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT169" t="n">
         <v>0.67</v>
@@ -35007,7 +35007,7 @@
         <v>2.13</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU170" t="n">
         <v>1.82</v>
@@ -36222,7 +36222,7 @@
         <v>1.92</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT176" t="n">
         <v>2.19</v>
@@ -36425,10 +36425,10 @@
         <v>0.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU177" t="n">
         <v>1.02</v>
@@ -36628,7 +36628,7 @@
         <v>0.42</v>
       </c>
       <c r="AS178" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT178" t="n">
         <v>0.4</v>
@@ -37037,7 +37037,7 @@
         <v>1.07</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU180" t="n">
         <v>1.2</v>
@@ -37240,7 +37240,7 @@
         <v>2</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU181" t="n">
         <v>1.69</v>
@@ -37440,7 +37440,7 @@
         <v>2.17</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT182" t="n">
         <v>2.29</v>
@@ -37846,7 +37846,7 @@
         <v>1.23</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT184" t="n">
         <v>1.07</v>
@@ -38052,7 +38052,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU185" t="n">
         <v>1.49</v>
@@ -38252,7 +38252,7 @@
         <v>0.54</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT186" t="n">
         <v>0.6899999999999999</v>
@@ -38458,7 +38458,7 @@
         <v>1.07</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU187" t="n">
         <v>1.16</v>
@@ -39470,10 +39470,10 @@
         <v>0.54</v>
       </c>
       <c r="AS192" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU192" t="n">
         <v>1.02</v>
@@ -39676,7 +39676,7 @@
         <v>1.2</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU193" t="n">
         <v>1.32</v>
@@ -39876,7 +39876,7 @@
         <v>0.38</v>
       </c>
       <c r="AS194" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT194" t="n">
         <v>0.4</v>
@@ -41297,10 +41297,10 @@
         <v>0.57</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU201" t="n">
         <v>1.2</v>
@@ -41503,7 +41503,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU202" t="n">
         <v>1.51</v>
@@ -41703,7 +41703,7 @@
         <v>0.5</v>
       </c>
       <c r="AS203" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT203" t="n">
         <v>0.6899999999999999</v>
@@ -41906,10 +41906,10 @@
         <v>0.29</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU204" t="n">
         <v>1.27</v>
@@ -44600,6 +44600,818 @@
       </c>
       <c r="BK217" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5619079</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45045.55208333334</v>
+      </c>
+      <c r="F218" t="n">
+        <v>5</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>8</v>
+      </c>
+      <c r="R218" t="n">
+        <v>1</v>
+      </c>
+      <c r="S218" t="n">
+        <v>9</v>
+      </c>
+      <c r="T218" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U218" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V218" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X218" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5619080</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45045.55208333334</v>
+      </c>
+      <c r="F219" t="n">
+        <v>5</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>2</v>
+      </c>
+      <c r="J219" t="n">
+        <v>2</v>
+      </c>
+      <c r="K219" t="n">
+        <v>4</v>
+      </c>
+      <c r="L219" t="n">
+        <v>2</v>
+      </c>
+      <c r="M219" t="n">
+        <v>3</v>
+      </c>
+      <c r="N219" t="n">
+        <v>5</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['16', '35']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['8', '26', '65']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>3</v>
+      </c>
+      <c r="R219" t="n">
+        <v>3</v>
+      </c>
+      <c r="S219" t="n">
+        <v>6</v>
+      </c>
+      <c r="T219" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U219" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V219" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X219" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5619081</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45045.55208333334</v>
+      </c>
+      <c r="F220" t="n">
+        <v>5</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>7</v>
+      </c>
+      <c r="R220" t="n">
+        <v>3</v>
+      </c>
+      <c r="S220" t="n">
+        <v>10</v>
+      </c>
+      <c r="T220" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U220" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V220" t="n">
+        <v>4</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X220" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5619082</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45045.55208333334</v>
+      </c>
+      <c r="F221" t="n">
+        <v>5</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>2</v>
+      </c>
+      <c r="K221" t="n">
+        <v>2</v>
+      </c>
+      <c r="L221" t="n">
+        <v>2</v>
+      </c>
+      <c r="M221" t="n">
+        <v>2</v>
+      </c>
+      <c r="N221" t="n">
+        <v>4</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['60', '90+14']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['10', '44']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>6</v>
+      </c>
+      <c r="R221" t="n">
+        <v>3</v>
+      </c>
+      <c r="S221" t="n">
+        <v>9</v>
+      </c>
+      <c r="T221" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U221" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V221" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X221" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK221"/>
+  <dimension ref="A1:BK224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.07</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT5" t="n">
         <v>1.07</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT6" t="n">
         <v>0.6899999999999999</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT8" t="n">
         <v>0.75</v>
@@ -2730,7 +2730,7 @@
         <v>2.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0.88</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT14" t="n">
         <v>0.67</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT17" t="n">
         <v>0.6899999999999999</v>
@@ -4148,7 +4148,7 @@
         <v>0.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT18" t="n">
         <v>0.5</v>
@@ -5772,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU26" t="n">
         <v>1.66</v>
@@ -5978,7 +5978,7 @@
         <v>1.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU27" t="n">
         <v>0.66</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AU28" t="n">
         <v>1.22</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT29" t="n">
         <v>0.6899999999999999</v>
@@ -6587,7 +6587,7 @@
         <v>0.88</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AU30" t="n">
         <v>1.01</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT32" t="n">
         <v>0.75</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT39" t="n">
         <v>0.67</v>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU40" t="n">
         <v>1.35</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT41" t="n">
         <v>2.29</v>
@@ -9429,7 +9429,7 @@
         <v>0.88</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU44" t="n">
         <v>0.77</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT48" t="n">
         <v>0.4</v>
@@ -10444,7 +10444,7 @@
         <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AU49" t="n">
         <v>1.5</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT57" t="n">
         <v>1.69</v>
@@ -12271,7 +12271,7 @@
         <v>1.5</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU58" t="n">
         <v>1.42</v>
@@ -12877,7 +12877,7 @@
         <v>0.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT61" t="n">
         <v>0.4</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU62" t="n">
         <v>1.3</v>
@@ -13286,7 +13286,7 @@
         <v>1.07</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AU63" t="n">
         <v>1.08</v>
@@ -14095,7 +14095,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT67" t="n">
         <v>0.6899999999999999</v>
@@ -15113,7 +15113,7 @@
         <v>1.07</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU72" t="n">
         <v>1.03</v>
@@ -15519,7 +15519,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU74" t="n">
         <v>1.36</v>
@@ -15719,7 +15719,7 @@
         <v>0.2</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT75" t="n">
         <v>0.75</v>
@@ -16125,7 +16125,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT77" t="n">
         <v>1.81</v>
@@ -16331,7 +16331,7 @@
         <v>1.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AU78" t="n">
         <v>1.13</v>
@@ -17955,7 +17955,7 @@
         <v>1.2</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU86" t="n">
         <v>1.64</v>
@@ -18155,7 +18155,7 @@
         <v>0.6</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT87" t="n">
         <v>0.67</v>
@@ -18561,10 +18561,10 @@
         <v>2.17</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AU89" t="n">
         <v>1.75</v>
@@ -18764,10 +18764,10 @@
         <v>2.2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU90" t="n">
         <v>1.91</v>
@@ -19376,7 +19376,7 @@
         <v>1.07</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU93" t="n">
         <v>1.08</v>
@@ -19782,7 +19782,7 @@
         <v>1.5</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU95" t="n">
         <v>1.21</v>
@@ -20997,7 +20997,7 @@
         <v>0.57</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT101" t="n">
         <v>0.4</v>
@@ -21203,7 +21203,7 @@
         <v>1</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AU102" t="n">
         <v>1.38</v>
@@ -21606,7 +21606,7 @@
         <v>0.83</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT104" t="n">
         <v>1.47</v>
@@ -22218,7 +22218,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU107" t="n">
         <v>1.4</v>
@@ -22624,7 +22624,7 @@
         <v>1.2</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AU109" t="n">
         <v>1.54</v>
@@ -23433,10 +23433,10 @@
         <v>1.14</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU113" t="n">
         <v>1.91</v>
@@ -25260,7 +25260,7 @@
         <v>1.13</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT122" t="n">
         <v>1.47</v>
@@ -25869,10 +25869,10 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU125" t="n">
         <v>1.68</v>
@@ -26278,7 +26278,7 @@
         <v>0.93</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU127" t="n">
         <v>1.35</v>
@@ -26887,7 +26887,7 @@
         <v>2</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU130" t="n">
         <v>1.71</v>
@@ -27090,7 +27090,7 @@
         <v>0.93</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AU131" t="n">
         <v>1.37</v>
@@ -27493,7 +27493,7 @@
         <v>1.78</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT133" t="n">
         <v>1.69</v>
@@ -28305,7 +28305,7 @@
         <v>1.11</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT137" t="n">
         <v>1.47</v>
@@ -28511,7 +28511,7 @@
         <v>2.5</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU138" t="n">
         <v>2.35</v>
@@ -28711,7 +28711,7 @@
         <v>0.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT139" t="n">
         <v>0.5</v>
@@ -29526,7 +29526,7 @@
         <v>0.93</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU143" t="n">
         <v>1.34</v>
@@ -29726,7 +29726,7 @@
         <v>0.5</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT144" t="n">
         <v>0.6899999999999999</v>
@@ -30132,7 +30132,7 @@
         <v>1.9</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT146" t="n">
         <v>1.81</v>
@@ -30338,7 +30338,7 @@
         <v>1.07</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU147" t="n">
         <v>1.21</v>
@@ -31756,7 +31756,7 @@
         <v>1.5</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT154" t="n">
         <v>1.07</v>
@@ -31959,10 +31959,10 @@
         <v>1.73</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU155" t="n">
         <v>1.57</v>
@@ -32771,10 +32771,10 @@
         <v>2</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AU159" t="n">
         <v>2</v>
@@ -33180,7 +33180,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU161" t="n">
         <v>1.53</v>
@@ -33989,7 +33989,7 @@
         <v>2.27</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT165" t="n">
         <v>2.29</v>
@@ -35004,7 +35004,7 @@
         <v>0.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT170" t="n">
         <v>0.5</v>
@@ -35210,7 +35210,7 @@
         <v>1.2</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU171" t="n">
         <v>1.31</v>
@@ -35413,7 +35413,7 @@
         <v>1.07</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU172" t="n">
         <v>1.19</v>
@@ -35616,7 +35616,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT173" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AU173" t="n">
         <v>1.51</v>
@@ -35816,7 +35816,7 @@
         <v>0.58</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT174" t="n">
         <v>0.6899999999999999</v>
@@ -36019,7 +36019,7 @@
         <v>1.33</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT175" t="n">
         <v>1.07</v>
@@ -36225,7 +36225,7 @@
         <v>1.5</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AU176" t="n">
         <v>1.37</v>
@@ -40079,10 +40079,10 @@
         <v>1.69</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU195" t="n">
         <v>1.72</v>
@@ -40282,10 +40282,10 @@
         <v>2</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT196" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AU196" t="n">
         <v>1.88</v>
@@ -40485,10 +40485,10 @@
         <v>0.85</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU197" t="n">
         <v>1.83</v>
@@ -40691,7 +40691,7 @@
         <v>1</v>
       </c>
       <c r="AT198" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AU198" t="n">
         <v>1.14</v>
@@ -41094,7 +41094,7 @@
         <v>1.93</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT200" t="n">
         <v>1.69</v>
@@ -42112,7 +42112,7 @@
         <v>2.5</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU205" t="n">
         <v>2.29</v>
@@ -42312,10 +42312,10 @@
         <v>1.64</v>
       </c>
       <c r="AS206" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU206" t="n">
         <v>1.81</v>
@@ -42515,7 +42515,7 @@
         <v>2.07</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT207" t="n">
         <v>1.81</v>
@@ -43533,7 +43533,7 @@
         <v>1</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU212" t="n">
         <v>1.1</v>
@@ -43733,7 +43733,7 @@
         <v>2.2</v>
       </c>
       <c r="AS213" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT213" t="n">
         <v>2.29</v>
@@ -43936,10 +43936,10 @@
         <v>2.13</v>
       </c>
       <c r="AS214" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT214" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AU214" t="n">
         <v>1.86</v>
@@ -45412,6 +45412,615 @@
       </c>
       <c r="BK221" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5619076</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45046.58333333334</v>
+      </c>
+      <c r="F222" t="n">
+        <v>7</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>3</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>3</v>
+      </c>
+      <c r="L222" t="n">
+        <v>5</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>5</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['19', '25', '45', '61', '68']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>7</v>
+      </c>
+      <c r="R222" t="n">
+        <v>3</v>
+      </c>
+      <c r="S222" t="n">
+        <v>10</v>
+      </c>
+      <c r="T222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U222" t="n">
+        <v>3</v>
+      </c>
+      <c r="V222" t="n">
+        <v>13</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X222" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5619077</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45046.58333333334</v>
+      </c>
+      <c r="F223" t="n">
+        <v>7</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>3</v>
+      </c>
+      <c r="R223" t="n">
+        <v>2</v>
+      </c>
+      <c r="S223" t="n">
+        <v>5</v>
+      </c>
+      <c r="T223" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V223" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X223" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>5619078</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45046.58333333334</v>
+      </c>
+      <c r="F224" t="n">
+        <v>7</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="n">
+        <v>3</v>
+      </c>
+      <c r="M224" t="n">
+        <v>2</v>
+      </c>
+      <c r="N224" t="n">
+        <v>5</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>['56', '62', '78']</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>['45', '70']</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>7</v>
+      </c>
+      <c r="R224" t="n">
+        <v>3</v>
+      </c>
+      <c r="S224" t="n">
+        <v>10</v>
+      </c>
+      <c r="T224" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U224" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V224" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X224" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK224"/>
+  <dimension ref="A1:BK227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AT6" t="n">
         <v>0.6899999999999999</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT7" t="n">
         <v>0.5</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AT18" t="n">
         <v>0.5</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT21" t="n">
         <v>0.75</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU22" t="n">
         <v>1.55</v>
@@ -5775,7 +5775,7 @@
         <v>2.18</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU26" t="n">
         <v>1.66</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AT28" t="n">
         <v>2.12</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AT32" t="n">
         <v>0.75</v>
@@ -7399,7 +7399,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU34" t="n">
         <v>0.96</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT43" t="n">
         <v>0.6899999999999999</v>
@@ -9429,7 +9429,7 @@
         <v>0.88</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU44" t="n">
         <v>0.77</v>
@@ -9835,7 +9835,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU46" t="n">
         <v>1.05</v>
@@ -10038,7 +10038,7 @@
         <v>1.07</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU47" t="n">
         <v>1.2</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AT48" t="n">
         <v>0.4</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT49" t="n">
         <v>2.12</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT52" t="n">
         <v>0.6899999999999999</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT53" t="n">
         <v>0.67</v>
@@ -12068,7 +12068,7 @@
         <v>2.18</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU57" t="n">
         <v>1.76</v>
@@ -12271,7 +12271,7 @@
         <v>1.5</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU58" t="n">
         <v>1.42</v>
@@ -12474,7 +12474,7 @@
         <v>0.88</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU59" t="n">
         <v>0.83</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AT62" t="n">
         <v>0.88</v>
@@ -14501,10 +14501,10 @@
         <v>1.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU69" t="n">
         <v>2.5</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT70" t="n">
         <v>1.47</v>
@@ -15113,7 +15113,7 @@
         <v>1.07</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU72" t="n">
         <v>1.03</v>
@@ -16125,10 +16125,10 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU77" t="n">
         <v>1.34</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT79" t="n">
         <v>0.6899999999999999</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT82" t="n">
         <v>1.47</v>
@@ -17346,7 +17346,7 @@
         <v>1.07</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU83" t="n">
         <v>1.12</v>
@@ -17752,7 +17752,7 @@
         <v>0.93</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU85" t="n">
         <v>1.74</v>
@@ -18155,7 +18155,7 @@
         <v>0.6</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AT87" t="n">
         <v>0.67</v>
@@ -18767,7 +18767,7 @@
         <v>2.12</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU90" t="n">
         <v>1.91</v>
@@ -19576,7 +19576,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT94" t="n">
         <v>0.6899999999999999</v>
@@ -19782,7 +19782,7 @@
         <v>1.5</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU95" t="n">
         <v>1.21</v>
@@ -19985,7 +19985,7 @@
         <v>1.2</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU96" t="n">
         <v>1.6</v>
@@ -20594,7 +20594,7 @@
         <v>0.88</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU99" t="n">
         <v>0.89</v>
@@ -21406,7 +21406,7 @@
         <v>1.5</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU103" t="n">
         <v>1.3</v>
@@ -21606,7 +21606,7 @@
         <v>0.83</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AT104" t="n">
         <v>1.47</v>
@@ -21809,7 +21809,7 @@
         <v>1.71</v>
       </c>
       <c r="AS105" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT105" t="n">
         <v>1.07</v>
@@ -22218,7 +22218,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU107" t="n">
         <v>1.4</v>
@@ -22827,7 +22827,7 @@
         <v>0.93</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU110" t="n">
         <v>1.5</v>
@@ -23842,7 +23842,7 @@
         <v>1.07</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU115" t="n">
         <v>1.22</v>
@@ -24045,7 +24045,7 @@
         <v>1</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU116" t="n">
         <v>1.31</v>
@@ -24448,7 +24448,7 @@
         <v>0.5</v>
       </c>
       <c r="AS118" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT118" t="n">
         <v>0.4</v>
@@ -24651,7 +24651,7 @@
         <v>2.71</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT119" t="n">
         <v>2.29</v>
@@ -25463,7 +25463,7 @@
         <v>1.5</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT123" t="n">
         <v>1.07</v>
@@ -26278,7 +26278,7 @@
         <v>0.93</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU127" t="n">
         <v>1.35</v>
@@ -26884,10 +26884,10 @@
         <v>1.78</v>
       </c>
       <c r="AS130" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU130" t="n">
         <v>1.71</v>
@@ -27493,10 +27493,10 @@
         <v>1.78</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU133" t="n">
         <v>1.57</v>
@@ -27699,7 +27699,7 @@
         <v>1.5</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU134" t="n">
         <v>1.33</v>
@@ -28508,7 +28508,7 @@
         <v>0.89</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT138" t="n">
         <v>0.88</v>
@@ -29726,7 +29726,7 @@
         <v>0.5</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AT144" t="n">
         <v>0.6899999999999999</v>
@@ -30135,7 +30135,7 @@
         <v>2.12</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU146" t="n">
         <v>1.96</v>
@@ -30338,7 +30338,7 @@
         <v>1.07</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU147" t="n">
         <v>1.21</v>
@@ -30944,7 +30944,7 @@
         <v>2.2</v>
       </c>
       <c r="AS150" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT150" t="n">
         <v>2.29</v>
@@ -31353,7 +31353,7 @@
         <v>1.5</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU152" t="n">
         <v>1.25</v>
@@ -31553,7 +31553,7 @@
         <v>0.3</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT153" t="n">
         <v>0.5</v>
@@ -31959,10 +31959,10 @@
         <v>1.73</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU155" t="n">
         <v>1.57</v>
@@ -32368,7 +32368,7 @@
         <v>1.07</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU157" t="n">
         <v>1.22</v>
@@ -33583,7 +33583,7 @@
         <v>0.45</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT163" t="n">
         <v>0.4</v>
@@ -33789,7 +33789,7 @@
         <v>1.2</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU164" t="n">
         <v>1.36</v>
@@ -34598,7 +34598,7 @@
         <v>0.73</v>
       </c>
       <c r="AS168" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT168" t="n">
         <v>0.67</v>
@@ -35210,7 +35210,7 @@
         <v>1.2</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU171" t="n">
         <v>1.31</v>
@@ -36019,7 +36019,7 @@
         <v>1.33</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AT175" t="n">
         <v>1.07</v>
@@ -36834,7 +36834,7 @@
         <v>1</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU179" t="n">
         <v>1.29</v>
@@ -37237,7 +37237,7 @@
         <v>0.67</v>
       </c>
       <c r="AS181" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT181" t="n">
         <v>0.75</v>
@@ -37643,10 +37643,10 @@
         <v>1.92</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU183" t="n">
         <v>2.4</v>
@@ -38661,7 +38661,7 @@
         <v>1</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU188" t="n">
         <v>1.22</v>
@@ -38861,10 +38861,10 @@
         <v>1.85</v>
       </c>
       <c r="AS189" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU189" t="n">
         <v>1.75</v>
@@ -39064,7 +39064,7 @@
         <v>2.23</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT190" t="n">
         <v>2.29</v>
@@ -40079,10 +40079,10 @@
         <v>1.69</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU195" t="n">
         <v>1.72</v>
@@ -40891,7 +40891,7 @@
         <v>2.14</v>
       </c>
       <c r="AS199" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT199" t="n">
         <v>2.29</v>
@@ -41097,7 +41097,7 @@
         <v>2.18</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU200" t="n">
         <v>1.84</v>
@@ -42109,7 +42109,7 @@
         <v>0.86</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT205" t="n">
         <v>0.88</v>
@@ -42315,7 +42315,7 @@
         <v>2.12</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU206" t="n">
         <v>1.81</v>
@@ -42515,10 +42515,10 @@
         <v>2.07</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU207" t="n">
         <v>1.74</v>
@@ -44342,10 +44342,10 @@
         <v>1.93</v>
       </c>
       <c r="AS216" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU216" t="n">
         <v>1.62</v>
@@ -44545,10 +44545,10 @@
         <v>1.8</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU217" t="n">
         <v>2.28</v>
@@ -45563,7 +45563,7 @@
         <v>2.18</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU222" t="n">
         <v>1.79</v>
@@ -45763,7 +45763,7 @@
         <v>2.19</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AT223" t="n">
         <v>2.12</v>
@@ -46021,6 +46021,615 @@
       </c>
       <c r="BK224" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>5619085</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45049.58333333334</v>
+      </c>
+      <c r="F225" t="n">
+        <v>8</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="n">
+        <v>2</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>6</v>
+      </c>
+      <c r="R225" t="n">
+        <v>5</v>
+      </c>
+      <c r="S225" t="n">
+        <v>11</v>
+      </c>
+      <c r="T225" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U225" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V225" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X225" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>5619084</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45049.58333333334</v>
+      </c>
+      <c r="F226" t="n">
+        <v>8</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>2</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>2</v>
+      </c>
+      <c r="L226" t="n">
+        <v>4</v>
+      </c>
+      <c r="M226" t="n">
+        <v>2</v>
+      </c>
+      <c r="N226" t="n">
+        <v>6</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['3', '44', '56', '74']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>['50', '59']</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>7</v>
+      </c>
+      <c r="R226" t="n">
+        <v>1</v>
+      </c>
+      <c r="S226" t="n">
+        <v>8</v>
+      </c>
+      <c r="T226" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V226" t="n">
+        <v>6</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X226" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>5619083</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45049.58333333334</v>
+      </c>
+      <c r="F227" t="n">
+        <v>8</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>11</v>
+      </c>
+      <c r="R227" t="n">
+        <v>1</v>
+      </c>
+      <c r="S227" t="n">
+        <v>12</v>
+      </c>
+      <c r="T227" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V227" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X227" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK227"/>
+  <dimension ref="A1:BK231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT3" t="n">
         <v>1.47</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT4" t="n">
         <v>2.12</v>
@@ -1512,7 +1512,7 @@
         <v>2.12</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.24</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2.06</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0.93</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT10" t="n">
         <v>0.6899999999999999</v>
@@ -3742,10 +3742,10 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU16" t="n">
         <v>0.61</v>
@@ -3948,7 +3948,7 @@
         <v>2.18</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU17" t="n">
         <v>1.85</v>
@@ -4151,7 +4151,7 @@
         <v>2.24</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU18" t="n">
         <v>1.27</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>1.3</v>
@@ -5166,7 +5166,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>0.8</v>
@@ -5366,10 +5366,10 @@
         <v>0.33</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU24" t="n">
         <v>1.46</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT31" t="n">
         <v>0.6899999999999999</v>
@@ -7196,7 +7196,7 @@
         <v>1.07</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU36" t="n">
         <v>1.45</v>
@@ -8005,10 +8005,10 @@
         <v>0.25</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU37" t="n">
         <v>0.61</v>
@@ -9020,10 +9020,10 @@
         <v>1.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU42" t="n">
         <v>1.73</v>
@@ -9226,7 +9226,7 @@
         <v>2.41</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU43" t="n">
         <v>1.82</v>
@@ -10241,7 +10241,7 @@
         <v>2.24</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU48" t="n">
         <v>1.12</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT50" t="n">
         <v>0.75</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU51" t="n">
         <v>1.3</v>
@@ -11053,7 +11053,7 @@
         <v>2.06</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU52" t="n">
         <v>1.38</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT54" t="n">
         <v>1.47</v>
@@ -11659,7 +11659,7 @@
         <v>3</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT55" t="n">
         <v>2.29</v>
@@ -11865,7 +11865,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU56" t="n">
         <v>1.22</v>
@@ -12268,7 +12268,7 @@
         <v>2.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT58" t="n">
         <v>1.35</v>
@@ -12880,7 +12880,7 @@
         <v>2.12</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU61" t="n">
         <v>1.84</v>
@@ -13692,7 +13692,7 @@
         <v>0.93</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU65" t="n">
         <v>1.71</v>
@@ -14907,10 +14907,10 @@
         <v>0.8</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU71" t="n">
         <v>1.71</v>
@@ -15110,7 +15110,7 @@
         <v>2.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT72" t="n">
         <v>1.35</v>
@@ -15316,7 +15316,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU73" t="n">
         <v>1.13</v>
@@ -15516,7 +15516,7 @@
         <v>0.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT74" t="n">
         <v>0.88</v>
@@ -15925,7 +15925,7 @@
         <v>0.88</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU76" t="n">
         <v>0.8100000000000001</v>
@@ -16937,10 +16937,10 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU81" t="n">
         <v>1.28</v>
@@ -17952,7 +17952,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT86" t="n">
         <v>0.88</v>
@@ -18358,10 +18358,10 @@
         <v>1.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU88" t="n">
         <v>1.25</v>
@@ -18970,7 +18970,7 @@
         <v>1.5</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU91" t="n">
         <v>1.13</v>
@@ -19173,7 +19173,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU92" t="n">
         <v>1.23</v>
@@ -19982,7 +19982,7 @@
         <v>1.83</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT96" t="n">
         <v>1.76</v>
@@ -20797,7 +20797,7 @@
         <v>1.07</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU100" t="n">
         <v>1.09</v>
@@ -21000,7 +21000,7 @@
         <v>2.18</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU101" t="n">
         <v>1.65</v>
@@ -21403,7 +21403,7 @@
         <v>1.71</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT103" t="n">
         <v>1.65</v>
@@ -21812,7 +21812,7 @@
         <v>2.06</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU105" t="n">
         <v>1.67</v>
@@ -22012,7 +22012,7 @@
         <v>0.14</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT106" t="n">
         <v>0.75</v>
@@ -22621,7 +22621,7 @@
         <v>2.13</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT109" t="n">
         <v>2.12</v>
@@ -23839,7 +23839,7 @@
         <v>1.63</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT115" t="n">
         <v>1.65</v>
@@ -24245,10 +24245,10 @@
         <v>0.38</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU117" t="n">
         <v>1.26</v>
@@ -24451,7 +24451,7 @@
         <v>2.06</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU118" t="n">
         <v>1.78</v>
@@ -25057,7 +25057,7 @@
         <v>0.75</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT121" t="n">
         <v>0.67</v>
@@ -25466,7 +25466,7 @@
         <v>2.41</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU123" t="n">
         <v>2.27</v>
@@ -25669,7 +25669,7 @@
         <v>1.5</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU124" t="n">
         <v>1.33</v>
@@ -26072,7 +26072,7 @@
         <v>2.38</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT126" t="n">
         <v>2.29</v>
@@ -26684,7 +26684,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU129" t="n">
         <v>1.49</v>
@@ -27696,7 +27696,7 @@
         <v>2</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT134" t="n">
         <v>1.76</v>
@@ -27902,7 +27902,7 @@
         <v>1</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU135" t="n">
         <v>1.3</v>
@@ -28102,7 +28102,7 @@
         <v>0.78</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT136" t="n">
         <v>0.67</v>
@@ -28714,7 +28714,7 @@
         <v>2.12</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU139" t="n">
         <v>1.98</v>
@@ -28914,10 +28914,10 @@
         <v>0.33</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU140" t="n">
         <v>1.13</v>
@@ -29932,7 +29932,7 @@
         <v>0.88</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU145" t="n">
         <v>1.03</v>
@@ -30538,10 +30538,10 @@
         <v>0.6</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU148" t="n">
         <v>1.34</v>
@@ -31147,7 +31147,7 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT151" t="n">
         <v>1.47</v>
@@ -31556,7 +31556,7 @@
         <v>2.41</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU153" t="n">
         <v>2.31</v>
@@ -31759,7 +31759,7 @@
         <v>2.18</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU154" t="n">
         <v>1.8</v>
@@ -32365,7 +32365,7 @@
         <v>1.82</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT157" t="n">
         <v>1.76</v>
@@ -32571,7 +32571,7 @@
         <v>0.88</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU158" t="n">
         <v>1.01</v>
@@ -32974,10 +32974,10 @@
         <v>0.27</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU160" t="n">
         <v>1.32</v>
@@ -33586,7 +33586,7 @@
         <v>2.41</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU163" t="n">
         <v>2.31</v>
@@ -33786,7 +33786,7 @@
         <v>1.82</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT164" t="n">
         <v>1.65</v>
@@ -34195,7 +34195,7 @@
         <v>1.07</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU166" t="n">
         <v>1.2</v>
@@ -35007,7 +35007,7 @@
         <v>2.18</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU170" t="n">
         <v>1.82</v>
@@ -35207,7 +35207,7 @@
         <v>1.58</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT171" t="n">
         <v>1.35</v>
@@ -35410,7 +35410,7 @@
         <v>0.92</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT172" t="n">
         <v>0.88</v>
@@ -35819,7 +35819,7 @@
         <v>2.12</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU174" t="n">
         <v>1.89</v>
@@ -36022,7 +36022,7 @@
         <v>2.24</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU175" t="n">
         <v>1.67</v>
@@ -36222,7 +36222,7 @@
         <v>1.92</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT176" t="n">
         <v>2.12</v>
@@ -36631,7 +36631,7 @@
         <v>0.93</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU178" t="n">
         <v>1.32</v>
@@ -37440,7 +37440,7 @@
         <v>2.17</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT182" t="n">
         <v>2.29</v>
@@ -37849,7 +37849,7 @@
         <v>1.5</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU184" t="n">
         <v>1.23</v>
@@ -38052,7 +38052,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU185" t="n">
         <v>1.49</v>
@@ -38252,10 +38252,10 @@
         <v>0.54</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU186" t="n">
         <v>1.23</v>
@@ -38455,7 +38455,7 @@
         <v>0.62</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT187" t="n">
         <v>0.75</v>
@@ -39673,7 +39673,7 @@
         <v>1.23</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT193" t="n">
         <v>1.47</v>
@@ -39879,7 +39879,7 @@
         <v>0.93</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU194" t="n">
         <v>1.31</v>
@@ -41297,7 +41297,7 @@
         <v>0.57</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT201" t="n">
         <v>0.75</v>
@@ -41706,7 +41706,7 @@
         <v>0.88</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU203" t="n">
         <v>1.02</v>
@@ -41909,7 +41909,7 @@
         <v>1.5</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU204" t="n">
         <v>1.27</v>
@@ -42721,7 +42721,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU208" t="n">
         <v>1.53</v>
@@ -42921,10 +42921,10 @@
         <v>1.14</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU209" t="n">
         <v>1.33</v>
@@ -43124,7 +43124,7 @@
         <v>0.71</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT210" t="n">
         <v>0.67</v>
@@ -43330,7 +43330,7 @@
         <v>1.07</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU211" t="n">
         <v>1.26</v>
@@ -44951,7 +44951,7 @@
         <v>1.36</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT219" t="n">
         <v>1.47</v>
@@ -45360,7 +45360,7 @@
         <v>0.88</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU221" t="n">
         <v>1.02</v>
@@ -46630,6 +46630,818 @@
       </c>
       <c r="BK227" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>5619089</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45052.58333333334</v>
+      </c>
+      <c r="F228" t="n">
+        <v>6</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>2</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>2</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['30', '85']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>4</v>
+      </c>
+      <c r="R228" t="n">
+        <v>1</v>
+      </c>
+      <c r="S228" t="n">
+        <v>5</v>
+      </c>
+      <c r="T228" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2</v>
+      </c>
+      <c r="V228" t="n">
+        <v>4</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X228" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>5619090</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45052.58333333334</v>
+      </c>
+      <c r="F229" t="n">
+        <v>6</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
+      <c r="K229" t="n">
+        <v>2</v>
+      </c>
+      <c r="L229" t="n">
+        <v>2</v>
+      </c>
+      <c r="M229" t="n">
+        <v>2</v>
+      </c>
+      <c r="N229" t="n">
+        <v>4</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['44', '81']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['13', '65']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>3</v>
+      </c>
+      <c r="R229" t="n">
+        <v>6</v>
+      </c>
+      <c r="S229" t="n">
+        <v>9</v>
+      </c>
+      <c r="T229" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2</v>
+      </c>
+      <c r="V229" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X229" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>5619091</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45052.58333333334</v>
+      </c>
+      <c r="F230" t="n">
+        <v>6</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>1</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>5</v>
+      </c>
+      <c r="R230" t="n">
+        <v>3</v>
+      </c>
+      <c r="S230" t="n">
+        <v>8</v>
+      </c>
+      <c r="T230" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U230" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V230" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X230" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>5619092</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45052.58333333334</v>
+      </c>
+      <c r="F231" t="n">
+        <v>6</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="n">
+        <v>2</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>2</v>
+      </c>
+      <c r="R231" t="n">
+        <v>3</v>
+      </c>
+      <c r="S231" t="n">
+        <v>5</v>
+      </c>
+      <c r="T231" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U231" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V231" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X231" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK231"/>
+  <dimension ref="A1:BK234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT2" t="n">
         <v>0.38</v>
@@ -1309,7 +1309,7 @@
         <v>1.06</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT7" t="n">
         <v>0.53</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT8" t="n">
         <v>0.75</v>
@@ -3136,7 +3136,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT17" t="n">
         <v>0.71</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT20" t="n">
         <v>1.47</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU22" t="n">
         <v>1.55</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT26" t="n">
         <v>1.35</v>
@@ -6181,7 +6181,7 @@
         <v>2.24</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU28" t="n">
         <v>1.22</v>
@@ -6587,7 +6587,7 @@
         <v>0.88</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU30" t="n">
         <v>1.01</v>
@@ -7399,7 +7399,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU34" t="n">
         <v>0.96</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT35" t="n">
         <v>1.76</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT36" t="n">
         <v>0.71</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT39" t="n">
         <v>0.67</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT40" t="n">
         <v>0.88</v>
@@ -8820,7 +8820,7 @@
         <v>2.12</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU41" t="n">
         <v>1.96</v>
@@ -10038,7 +10038,7 @@
         <v>1.07</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU47" t="n">
         <v>1.2</v>
@@ -10441,10 +10441,10 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU49" t="n">
         <v>1.5</v>
@@ -10847,7 +10847,7 @@
         <v>0.2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT51" t="n">
         <v>0.53</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT52" t="n">
         <v>0.71</v>
@@ -11662,7 +11662,7 @@
         <v>1.06</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU55" t="n">
         <v>1.21</v>
@@ -12065,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU57" t="n">
         <v>1.76</v>
@@ -13286,7 +13286,7 @@
         <v>1.07</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU63" t="n">
         <v>1.08</v>
@@ -13892,10 +13892,10 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU66" t="n">
         <v>1.41</v>
@@ -14095,7 +14095,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT67" t="n">
         <v>0.6899999999999999</v>
@@ -14504,7 +14504,7 @@
         <v>2.41</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU69" t="n">
         <v>2.5</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT70" t="n">
         <v>1.47</v>
@@ -16331,7 +16331,7 @@
         <v>1.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU78" t="n">
         <v>1.13</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT79" t="n">
         <v>0.6899999999999999</v>
@@ -16737,7 +16737,7 @@
         <v>0.88</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU80" t="n">
         <v>0.92</v>
@@ -17546,7 +17546,7 @@
         <v>0.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT84" t="n">
         <v>0.75</v>
@@ -17752,7 +17752,7 @@
         <v>0.93</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU85" t="n">
         <v>1.74</v>
@@ -18561,10 +18561,10 @@
         <v>2.17</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU89" t="n">
         <v>1.75</v>
@@ -20188,7 +20188,7 @@
         <v>0.93</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU97" t="n">
         <v>1.58</v>
@@ -20594,7 +20594,7 @@
         <v>0.88</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU99" t="n">
         <v>0.89</v>
@@ -20997,7 +20997,7 @@
         <v>0.57</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT101" t="n">
         <v>0.38</v>
@@ -21200,10 +21200,10 @@
         <v>2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU102" t="n">
         <v>1.38</v>
@@ -21406,7 +21406,7 @@
         <v>1.59</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU103" t="n">
         <v>1.3</v>
@@ -21809,7 +21809,7 @@
         <v>1.71</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT105" t="n">
         <v>1</v>
@@ -22421,7 +22421,7 @@
         <v>1.07</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU108" t="n">
         <v>1.16</v>
@@ -22624,7 +22624,7 @@
         <v>1.31</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU109" t="n">
         <v>1.54</v>
@@ -23842,7 +23842,7 @@
         <v>1.06</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU115" t="n">
         <v>1.22</v>
@@ -24042,7 +24042,7 @@
         <v>1.88</v>
       </c>
       <c r="AS116" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT116" t="n">
         <v>1.76</v>
@@ -24448,7 +24448,7 @@
         <v>0.5</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT118" t="n">
         <v>0.38</v>
@@ -24654,7 +24654,7 @@
         <v>2.41</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU119" t="n">
         <v>2.36</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT125" t="n">
         <v>0.88</v>
@@ -26075,7 +26075,7 @@
         <v>1.31</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU126" t="n">
         <v>1.41</v>
@@ -26884,7 +26884,7 @@
         <v>1.78</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT130" t="n">
         <v>1.35</v>
@@ -27090,7 +27090,7 @@
         <v>0.93</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU131" t="n">
         <v>1.37</v>
@@ -27496,7 +27496,7 @@
         <v>2.24</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU133" t="n">
         <v>1.57</v>
@@ -27899,7 +27899,7 @@
         <v>1.33</v>
       </c>
       <c r="AS135" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT135" t="n">
         <v>1</v>
@@ -28305,7 +28305,7 @@
         <v>1.11</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT137" t="n">
         <v>1.47</v>
@@ -29120,7 +29120,7 @@
         <v>1.5</v>
       </c>
       <c r="AT141" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU141" t="n">
         <v>1.3</v>
@@ -30741,7 +30741,7 @@
         <v>0.8</v>
       </c>
       <c r="AS149" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT149" t="n">
         <v>0.67</v>
@@ -30944,10 +30944,10 @@
         <v>2.2</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT150" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU150" t="n">
         <v>1.72</v>
@@ -31353,7 +31353,7 @@
         <v>1.5</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU152" t="n">
         <v>1.25</v>
@@ -31756,7 +31756,7 @@
         <v>1.5</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT154" t="n">
         <v>1</v>
@@ -32774,7 +32774,7 @@
         <v>2.12</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU159" t="n">
         <v>2</v>
@@ -33380,7 +33380,7 @@
         <v>0.45</v>
       </c>
       <c r="AS162" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT162" t="n">
         <v>0.6899999999999999</v>
@@ -33789,7 +33789,7 @@
         <v>1.31</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU164" t="n">
         <v>1.36</v>
@@ -33989,10 +33989,10 @@
         <v>2.27</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT165" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU165" t="n">
         <v>1.79</v>
@@ -34598,7 +34598,7 @@
         <v>0.73</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT168" t="n">
         <v>0.67</v>
@@ -35004,7 +35004,7 @@
         <v>0.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT170" t="n">
         <v>0.53</v>
@@ -35616,7 +35616,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT173" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU173" t="n">
         <v>1.51</v>
@@ -36225,7 +36225,7 @@
         <v>1.59</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU176" t="n">
         <v>1.37</v>
@@ -36831,10 +36831,10 @@
         <v>1.75</v>
       </c>
       <c r="AS179" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU179" t="n">
         <v>1.29</v>
@@ -37237,7 +37237,7 @@
         <v>0.67</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT181" t="n">
         <v>0.75</v>
@@ -37443,7 +37443,7 @@
         <v>1.59</v>
       </c>
       <c r="AT182" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU182" t="n">
         <v>1.29</v>
@@ -38658,7 +38658,7 @@
         <v>2</v>
       </c>
       <c r="AS188" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT188" t="n">
         <v>1.76</v>
@@ -38861,10 +38861,10 @@
         <v>1.85</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU189" t="n">
         <v>1.75</v>
@@ -39067,7 +39067,7 @@
         <v>2.41</v>
       </c>
       <c r="AT190" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU190" t="n">
         <v>2.37</v>
@@ -40285,7 +40285,7 @@
         <v>2.12</v>
       </c>
       <c r="AT196" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU196" t="n">
         <v>1.88</v>
@@ -40485,7 +40485,7 @@
         <v>0.85</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT197" t="n">
         <v>0.88</v>
@@ -40688,10 +40688,10 @@
         <v>2.07</v>
       </c>
       <c r="AS198" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT198" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU198" t="n">
         <v>1.14</v>
@@ -40891,10 +40891,10 @@
         <v>2.14</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT199" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU199" t="n">
         <v>1.69</v>
@@ -41094,10 +41094,10 @@
         <v>1.93</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU200" t="n">
         <v>1.84</v>
@@ -43530,7 +43530,7 @@
         <v>0.8</v>
       </c>
       <c r="AS212" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT212" t="n">
         <v>0.88</v>
@@ -43736,7 +43736,7 @@
         <v>2.12</v>
       </c>
       <c r="AT213" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU213" t="n">
         <v>1.84</v>
@@ -43936,10 +43936,10 @@
         <v>2.13</v>
       </c>
       <c r="AS214" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT214" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU214" t="n">
         <v>1.86</v>
@@ -44139,10 +44139,10 @@
         <v>2.25</v>
       </c>
       <c r="AS215" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT215" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU215" t="n">
         <v>1.08</v>
@@ -44342,7 +44342,7 @@
         <v>1.93</v>
       </c>
       <c r="AS216" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT216" t="n">
         <v>1.76</v>
@@ -44548,7 +44548,7 @@
         <v>2.41</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU217" t="n">
         <v>2.28</v>
@@ -45560,7 +45560,7 @@
         <v>1.53</v>
       </c>
       <c r="AS222" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT222" t="n">
         <v>1.35</v>
@@ -45766,7 +45766,7 @@
         <v>2.24</v>
       </c>
       <c r="AT223" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU223" t="n">
         <v>1.71</v>
@@ -46172,7 +46172,7 @@
         <v>2.24</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU225" t="n">
         <v>1.65</v>
@@ -46372,7 +46372,7 @@
         <v>1.44</v>
       </c>
       <c r="AS226" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT226" t="n">
         <v>1.35</v>
@@ -47442,6 +47442,615 @@
       </c>
       <c r="BK231" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>5619086</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45054.625</v>
+      </c>
+      <c r="F232" t="n">
+        <v>9</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>2</v>
+      </c>
+      <c r="K232" t="n">
+        <v>3</v>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="n">
+        <v>2</v>
+      </c>
+      <c r="N232" t="n">
+        <v>3</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['23', '43']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>1</v>
+      </c>
+      <c r="R232" t="n">
+        <v>3</v>
+      </c>
+      <c r="S232" t="n">
+        <v>4</v>
+      </c>
+      <c r="T232" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V232" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X232" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>5619087</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45054.625</v>
+      </c>
+      <c r="F233" t="n">
+        <v>9</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>2</v>
+      </c>
+      <c r="N233" t="n">
+        <v>2</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['28', '57']</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" t="n">
+        <v>4</v>
+      </c>
+      <c r="S233" t="n">
+        <v>4</v>
+      </c>
+      <c r="T233" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V233" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X233" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>5619088</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45054.625</v>
+      </c>
+      <c r="F234" t="n">
+        <v>9</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>1</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T234" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="U234" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V234" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X234" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -47629,22 +47629,22 @@
         <v>4.5</v>
       </c>
       <c r="BF232" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG232" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH232" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI232" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BJ232" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BK232" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="233">
@@ -47841,13 +47841,13 @@
         <v>2</v>
       </c>
       <c r="BI233" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BJ233" t="n">
         <v>2</v>
       </c>
       <c r="BK233" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="234">
@@ -47912,13 +47912,13 @@
         </is>
       </c>
       <c r="Q234" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R234" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S234" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T234" t="n">
         <v>4.34</v>
@@ -48035,22 +48035,22 @@
         <v>4.9</v>
       </c>
       <c r="BF234" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG234" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH234" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI234" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ234" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BK234" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK234"/>
+  <dimension ref="A1:BK241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.59</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT6" t="n">
         <v>0.71</v>
@@ -2121,7 +2121,7 @@
         <v>2.22</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT9" t="n">
         <v>0.53</v>
@@ -2527,7 +2527,7 @@
         <v>1.31</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU14" t="n">
         <v>2.32</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT18" t="n">
         <v>0.53</v>
@@ -4557,7 +4557,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU20" t="n">
         <v>1.54</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU21" t="n">
         <v>2</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU25" t="n">
         <v>1.79</v>
@@ -5775,7 +5775,7 @@
         <v>2.22</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU26" t="n">
         <v>1.66</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU27" t="n">
         <v>0.66</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT28" t="n">
         <v>2.17</v>
@@ -6381,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU29" t="n">
         <v>2.15</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT30" t="n">
         <v>2.17</v>
@@ -6790,7 +6790,7 @@
         <v>1.59</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU31" t="n">
         <v>1.39</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU32" t="n">
         <v>1.18</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT33" t="n">
         <v>0.38</v>
@@ -7602,7 +7602,7 @@
         <v>1.94</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -8208,10 +8208,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU38" t="n">
         <v>1.24</v>
@@ -8414,7 +8414,7 @@
         <v>2.22</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU39" t="n">
         <v>1.84</v>
@@ -8617,7 +8617,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU40" t="n">
         <v>1.35</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT41" t="n">
         <v>2.17</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT43" t="n">
         <v>0.71</v>
@@ -9426,10 +9426,10 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU44" t="n">
         <v>0.77</v>
@@ -9629,10 +9629,10 @@
         <v>0.67</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU45" t="n">
         <v>1.62</v>
@@ -9835,7 +9835,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU46" t="n">
         <v>1.05</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT47" t="n">
         <v>1.72</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT48" t="n">
         <v>0.38</v>
@@ -10647,7 +10647,7 @@
         <v>1.59</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU50" t="n">
         <v>1.34</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU53" t="n">
         <v>2.19</v>
@@ -11459,7 +11459,7 @@
         <v>1.31</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU54" t="n">
         <v>1.81</v>
@@ -11862,7 +11862,7 @@
         <v>1.75</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12271,7 +12271,7 @@
         <v>1.59</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU58" t="n">
         <v>1.42</v>
@@ -12471,10 +12471,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU59" t="n">
         <v>0.83</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU60" t="n">
         <v>1.83</v>
@@ -12877,7 +12877,7 @@
         <v>0.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT61" t="n">
         <v>0.38</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU62" t="n">
         <v>1.3</v>
@@ -13283,7 +13283,7 @@
         <v>2.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT63" t="n">
         <v>2.17</v>
@@ -13489,7 +13489,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU64" t="n">
         <v>1.07</v>
@@ -13689,7 +13689,7 @@
         <v>1.6</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT65" t="n">
         <v>1</v>
@@ -14098,7 +14098,7 @@
         <v>2.22</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU67" t="n">
         <v>1.76</v>
@@ -14298,10 +14298,10 @@
         <v>0.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU68" t="n">
         <v>1.03</v>
@@ -14501,7 +14501,7 @@
         <v>1.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT69" t="n">
         <v>1.72</v>
@@ -14707,7 +14707,7 @@
         <v>1.94</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU70" t="n">
         <v>1.46</v>
@@ -15113,7 +15113,7 @@
         <v>1.06</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU72" t="n">
         <v>1.03</v>
@@ -15519,7 +15519,7 @@
         <v>1.59</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU74" t="n">
         <v>1.36</v>
@@ -15719,10 +15719,10 @@
         <v>0.2</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU75" t="n">
         <v>1.94</v>
@@ -15922,7 +15922,7 @@
         <v>0.17</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT76" t="n">
         <v>0.53</v>
@@ -16125,10 +16125,10 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU77" t="n">
         <v>1.34</v>
@@ -16328,7 +16328,7 @@
         <v>2.4</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT78" t="n">
         <v>2.17</v>
@@ -16534,7 +16534,7 @@
         <v>1.94</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU79" t="n">
         <v>1.58</v>
@@ -16734,7 +16734,7 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT80" t="n">
         <v>2.17</v>
@@ -17140,10 +17140,10 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU82" t="n">
         <v>2.41</v>
@@ -17343,10 +17343,10 @@
         <v>1.6</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU83" t="n">
         <v>1.12</v>
@@ -17549,7 +17549,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU84" t="n">
         <v>1.34</v>
@@ -17749,7 +17749,7 @@
         <v>1.2</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT85" t="n">
         <v>1.72</v>
@@ -17955,7 +17955,7 @@
         <v>1.31</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU86" t="n">
         <v>1.64</v>
@@ -18155,10 +18155,10 @@
         <v>0.6</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU87" t="n">
         <v>1.32</v>
@@ -18764,10 +18764,10 @@
         <v>2.2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU90" t="n">
         <v>1.91</v>
@@ -18967,7 +18967,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT91" t="n">
         <v>0.71</v>
@@ -19373,10 +19373,10 @@
         <v>1.17</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU93" t="n">
         <v>1.08</v>
@@ -19576,10 +19576,10 @@
         <v>0.57</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU94" t="n">
         <v>2.39</v>
@@ -19779,10 +19779,10 @@
         <v>1.83</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU95" t="n">
         <v>1.21</v>
@@ -19985,7 +19985,7 @@
         <v>1.31</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU96" t="n">
         <v>1.6</v>
@@ -20185,7 +20185,7 @@
         <v>3</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT97" t="n">
         <v>2.17</v>
@@ -20391,7 +20391,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU98" t="n">
         <v>1.21</v>
@@ -20591,7 +20591,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT99" t="n">
         <v>1.72</v>
@@ -20794,7 +20794,7 @@
         <v>0.43</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT100" t="n">
         <v>0.71</v>
@@ -21606,10 +21606,10 @@
         <v>0.83</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU104" t="n">
         <v>1.47</v>
@@ -22015,7 +22015,7 @@
         <v>1.06</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU106" t="n">
         <v>1.25</v>
@@ -22218,7 +22218,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU107" t="n">
         <v>1.4</v>
@@ -22418,7 +22418,7 @@
         <v>2.67</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT108" t="n">
         <v>2.17</v>
@@ -22824,10 +22824,10 @@
         <v>1.71</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU110" t="n">
         <v>1.5</v>
@@ -23027,10 +23027,10 @@
         <v>0.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU111" t="n">
         <v>1.31</v>
@@ -23230,10 +23230,10 @@
         <v>0.86</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU112" t="n">
         <v>0.91</v>
@@ -23433,10 +23433,10 @@
         <v>1.14</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU113" t="n">
         <v>1.91</v>
@@ -23636,10 +23636,10 @@
         <v>0.25</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU114" t="n">
         <v>1.17</v>
@@ -24045,7 +24045,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU116" t="n">
         <v>1.31</v>
@@ -24651,7 +24651,7 @@
         <v>2.71</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT119" t="n">
         <v>2.17</v>
@@ -24854,10 +24854,10 @@
         <v>0.86</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU120" t="n">
         <v>1.05</v>
@@ -25060,7 +25060,7 @@
         <v>1.06</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU121" t="n">
         <v>1.12</v>
@@ -25260,10 +25260,10 @@
         <v>1.13</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU122" t="n">
         <v>1.85</v>
@@ -25463,7 +25463,7 @@
         <v>1.5</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT123" t="n">
         <v>1</v>
@@ -25666,7 +25666,7 @@
         <v>0.25</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT124" t="n">
         <v>0.53</v>
@@ -25872,7 +25872,7 @@
         <v>2.22</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU125" t="n">
         <v>1.68</v>
@@ -26275,10 +26275,10 @@
         <v>1.63</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU127" t="n">
         <v>1.35</v>
@@ -26478,10 +26478,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU128" t="n">
         <v>1</v>
@@ -26887,7 +26887,7 @@
         <v>1.94</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU130" t="n">
         <v>1.71</v>
@@ -27087,7 +27087,7 @@
         <v>1.89</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT131" t="n">
         <v>2.17</v>
@@ -27290,10 +27290,10 @@
         <v>0.44</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU132" t="n">
         <v>1.18</v>
@@ -27493,7 +27493,7 @@
         <v>1.78</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT133" t="n">
         <v>1.72</v>
@@ -27699,7 +27699,7 @@
         <v>1.59</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU134" t="n">
         <v>1.33</v>
@@ -28105,7 +28105,7 @@
         <v>1.31</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU136" t="n">
         <v>1.34</v>
@@ -28308,7 +28308,7 @@
         <v>2.22</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU137" t="n">
         <v>1.69</v>
@@ -28508,10 +28508,10 @@
         <v>0.89</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU138" t="n">
         <v>2.35</v>
@@ -28711,7 +28711,7 @@
         <v>0.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT139" t="n">
         <v>0.53</v>
@@ -29117,7 +29117,7 @@
         <v>2.44</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT141" t="n">
         <v>2.17</v>
@@ -29323,7 +29323,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU142" t="n">
         <v>1.47</v>
@@ -29523,10 +29523,10 @@
         <v>0.8</v>
       </c>
       <c r="AS143" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU143" t="n">
         <v>1.34</v>
@@ -29726,10 +29726,10 @@
         <v>0.5</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU144" t="n">
         <v>1.51</v>
@@ -29929,7 +29929,7 @@
         <v>0.4</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT145" t="n">
         <v>0.38</v>
@@ -30132,10 +30132,10 @@
         <v>1.9</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU146" t="n">
         <v>1.96</v>
@@ -30335,10 +30335,10 @@
         <v>1.6</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU147" t="n">
         <v>1.21</v>
@@ -30744,7 +30744,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU149" t="n">
         <v>1.3</v>
@@ -31150,7 +31150,7 @@
         <v>1.06</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU151" t="n">
         <v>1.16</v>
@@ -31350,7 +31350,7 @@
         <v>1.9</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT152" t="n">
         <v>1.72</v>
@@ -31553,7 +31553,7 @@
         <v>0.3</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT153" t="n">
         <v>0.53</v>
@@ -31959,10 +31959,10 @@
         <v>1.73</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU155" t="n">
         <v>1.57</v>
@@ -32162,10 +32162,10 @@
         <v>0.64</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU156" t="n">
         <v>1.25</v>
@@ -32368,7 +32368,7 @@
         <v>1.06</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU157" t="n">
         <v>1.22</v>
@@ -32568,7 +32568,7 @@
         <v>0.64</v>
       </c>
       <c r="AS158" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT158" t="n">
         <v>0.71</v>
@@ -32771,7 +32771,7 @@
         <v>2</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT159" t="n">
         <v>2.17</v>
@@ -33180,7 +33180,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU161" t="n">
         <v>1.53</v>
@@ -33383,7 +33383,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU162" t="n">
         <v>1.29</v>
@@ -33583,7 +33583,7 @@
         <v>0.45</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT163" t="n">
         <v>0.38</v>
@@ -34192,7 +34192,7 @@
         <v>1.36</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT166" t="n">
         <v>1</v>
@@ -34395,10 +34395,10 @@
         <v>1.18</v>
       </c>
       <c r="AS167" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU167" t="n">
         <v>1.3</v>
@@ -34601,7 +34601,7 @@
         <v>1.94</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU168" t="n">
         <v>1.65</v>
@@ -34801,10 +34801,10 @@
         <v>0.67</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU169" t="n">
         <v>1.22</v>
@@ -35210,7 +35210,7 @@
         <v>1.31</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU171" t="n">
         <v>1.31</v>
@@ -35413,7 +35413,7 @@
         <v>1.06</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU172" t="n">
         <v>1.19</v>
@@ -35816,7 +35816,7 @@
         <v>0.58</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT174" t="n">
         <v>0.71</v>
@@ -36019,7 +36019,7 @@
         <v>1.33</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT175" t="n">
         <v>1</v>
@@ -36425,10 +36425,10 @@
         <v>0.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU177" t="n">
         <v>1.02</v>
@@ -36628,7 +36628,7 @@
         <v>0.42</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT178" t="n">
         <v>0.38</v>
@@ -37034,10 +37034,10 @@
         <v>1.33</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU180" t="n">
         <v>1.2</v>
@@ -37240,7 +37240,7 @@
         <v>1.94</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU181" t="n">
         <v>1.69</v>
@@ -37643,10 +37643,10 @@
         <v>1.92</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU183" t="n">
         <v>2.4</v>
@@ -37846,7 +37846,7 @@
         <v>1.23</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT184" t="n">
         <v>1</v>
@@ -38458,7 +38458,7 @@
         <v>1.06</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU187" t="n">
         <v>1.16</v>
@@ -38661,7 +38661,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU188" t="n">
         <v>1.22</v>
@@ -39064,7 +39064,7 @@
         <v>2.23</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT190" t="n">
         <v>2.17</v>
@@ -39267,10 +39267,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU191" t="n">
         <v>1.22</v>
@@ -39470,10 +39470,10 @@
         <v>0.54</v>
       </c>
       <c r="AS192" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU192" t="n">
         <v>1.02</v>
@@ -39676,7 +39676,7 @@
         <v>1.31</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU193" t="n">
         <v>1.32</v>
@@ -39876,7 +39876,7 @@
         <v>0.38</v>
       </c>
       <c r="AS194" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT194" t="n">
         <v>0.38</v>
@@ -40079,10 +40079,10 @@
         <v>1.69</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU195" t="n">
         <v>1.72</v>
@@ -40282,7 +40282,7 @@
         <v>2</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT196" t="n">
         <v>2.17</v>
@@ -40488,7 +40488,7 @@
         <v>2.22</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU197" t="n">
         <v>1.83</v>
@@ -41300,7 +41300,7 @@
         <v>1.59</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU201" t="n">
         <v>1.2</v>
@@ -41503,7 +41503,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU202" t="n">
         <v>1.51</v>
@@ -41703,7 +41703,7 @@
         <v>0.5</v>
       </c>
       <c r="AS203" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT203" t="n">
         <v>0.71</v>
@@ -41906,7 +41906,7 @@
         <v>0.29</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT204" t="n">
         <v>0.53</v>
@@ -42109,10 +42109,10 @@
         <v>0.86</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU205" t="n">
         <v>2.29</v>
@@ -42312,10 +42312,10 @@
         <v>1.64</v>
       </c>
       <c r="AS206" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU206" t="n">
         <v>1.81</v>
@@ -42515,10 +42515,10 @@
         <v>2.07</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU207" t="n">
         <v>1.74</v>
@@ -43127,7 +43127,7 @@
         <v>1.06</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU210" t="n">
         <v>1.15</v>
@@ -43327,7 +43327,7 @@
         <v>0.67</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT211" t="n">
         <v>0.71</v>
@@ -43533,7 +43533,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU212" t="n">
         <v>1.1</v>
@@ -43733,7 +43733,7 @@
         <v>2.2</v>
       </c>
       <c r="AS213" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT213" t="n">
         <v>2.17</v>
@@ -44345,7 +44345,7 @@
         <v>1.94</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU216" t="n">
         <v>1.62</v>
@@ -44545,7 +44545,7 @@
         <v>1.8</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT217" t="n">
         <v>1.72</v>
@@ -44748,10 +44748,10 @@
         <v>0.67</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU218" t="n">
         <v>1.25</v>
@@ -44954,7 +44954,7 @@
         <v>1.59</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU219" t="n">
         <v>1.25</v>
@@ -45154,10 +45154,10 @@
         <v>0.6</v>
       </c>
       <c r="AS220" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU220" t="n">
         <v>1.3</v>
@@ -45357,7 +45357,7 @@
         <v>0.47</v>
       </c>
       <c r="AS221" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT221" t="n">
         <v>0.53</v>
@@ -45563,7 +45563,7 @@
         <v>2.22</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU222" t="n">
         <v>1.79</v>
@@ -45763,7 +45763,7 @@
         <v>2.19</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT223" t="n">
         <v>2.17</v>
@@ -45966,10 +45966,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS224" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU224" t="n">
         <v>1.82</v>
@@ -46169,7 +46169,7 @@
         <v>1.69</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT225" t="n">
         <v>1.72</v>
@@ -46375,7 +46375,7 @@
         <v>1.94</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU226" t="n">
         <v>1.58</v>
@@ -46575,10 +46575,10 @@
         <v>1.81</v>
       </c>
       <c r="AS227" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU227" t="n">
         <v>2.28</v>
@@ -48051,6 +48051,1427 @@
       </c>
       <c r="BK234" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>5619099</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45059.45833333334</v>
+      </c>
+      <c r="F235" t="n">
+        <v>7</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>2</v>
+      </c>
+      <c r="N235" t="n">
+        <v>2</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['84', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>6</v>
+      </c>
+      <c r="R235" t="n">
+        <v>4</v>
+      </c>
+      <c r="S235" t="n">
+        <v>10</v>
+      </c>
+      <c r="T235" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V235" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X235" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>5619098</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45059.58333333334</v>
+      </c>
+      <c r="F236" t="n">
+        <v>7</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>2</v>
+      </c>
+      <c r="J236" t="n">
+        <v>2</v>
+      </c>
+      <c r="K236" t="n">
+        <v>4</v>
+      </c>
+      <c r="L236" t="n">
+        <v>3</v>
+      </c>
+      <c r="M236" t="n">
+        <v>3</v>
+      </c>
+      <c r="N236" t="n">
+        <v>6</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>['28', '45+2', '77']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['34', '38', '80']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>13</v>
+      </c>
+      <c r="R236" t="n">
+        <v>2</v>
+      </c>
+      <c r="S236" t="n">
+        <v>15</v>
+      </c>
+      <c r="T236" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U236" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V236" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X236" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>5619096</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45059.58333333334</v>
+      </c>
+      <c r="F237" t="n">
+        <v>7</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="n">
+        <v>2</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>5</v>
+      </c>
+      <c r="R237" t="n">
+        <v>5</v>
+      </c>
+      <c r="S237" t="n">
+        <v>10</v>
+      </c>
+      <c r="T237" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U237" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V237" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X237" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>5619097</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45059.58333333334</v>
+      </c>
+      <c r="F238" t="n">
+        <v>7</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>2</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>2</v>
+      </c>
+      <c r="L238" t="n">
+        <v>2</v>
+      </c>
+      <c r="M238" t="n">
+        <v>2</v>
+      </c>
+      <c r="N238" t="n">
+        <v>4</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['30', '37']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['53', '72']</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>7</v>
+      </c>
+      <c r="R238" t="n">
+        <v>2</v>
+      </c>
+      <c r="S238" t="n">
+        <v>9</v>
+      </c>
+      <c r="T238" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U238" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V238" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X238" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>5619093</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45060.58333333334</v>
+      </c>
+      <c r="F239" t="n">
+        <v>10</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>2</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>2</v>
+      </c>
+      <c r="L239" t="n">
+        <v>4</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>4</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>['16', '33', '59', '85']</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>6</v>
+      </c>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
+      <c r="S239" t="n">
+        <v>6</v>
+      </c>
+      <c r="T239" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U239" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="V239" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X239" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>5619094</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45060.58333333334</v>
+      </c>
+      <c r="F240" t="n">
+        <v>10</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
+      <c r="K240" t="n">
+        <v>2</v>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="n">
+        <v>2</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>4</v>
+      </c>
+      <c r="R240" t="n">
+        <v>3</v>
+      </c>
+      <c r="S240" t="n">
+        <v>7</v>
+      </c>
+      <c r="T240" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U240" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V240" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X240" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>5619095</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45060.58333333334</v>
+      </c>
+      <c r="F241" t="n">
+        <v>10</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>3</v>
+      </c>
+      <c r="R241" t="n">
+        <v>3</v>
+      </c>
+      <c r="S241" t="n">
+        <v>6</v>
+      </c>
+      <c r="T241" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U241" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V241" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X241" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
